--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_37.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_37.xlsx
@@ -508,99 +508,99 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_8</t>
+          <t>model_1_37_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9996884813278015</v>
+        <v>0.9470440303145098</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8237544076017271</v>
+        <v>0.7086624920281408</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8149553909645364</v>
+        <v>0.7570890808775658</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999211621885834</v>
+        <v>0.9127321999932899</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001296704789588048</v>
+        <v>0.1700038710879272</v>
       </c>
       <c r="G2" t="n">
-        <v>1.178555087903583</v>
+        <v>1.948175257293697</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6618938370169429</v>
+        <v>0.8688782729165955</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002488518597527295</v>
+        <v>0.2939155595065197</v>
       </c>
       <c r="J2" t="n">
-        <v>0.07772686377466378</v>
+        <v>1.131590182671897</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03600978741381359</v>
+        <v>0.4123152569186923</v>
       </c>
       <c r="L2" t="n">
-        <v>1.019937195020702</v>
+        <v>0.927889743406992</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03657690556899997</v>
+        <v>0.4188088100511173</v>
       </c>
       <c r="N2" t="n">
-        <v>143.295858019483</v>
+        <v>37.54386814217136</v>
       </c>
       <c r="O2" t="n">
-        <v>284.6310305626994</v>
+        <v>74.50845173039718</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_9</t>
+          <t>model_1_37_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9996929969446665</v>
+        <v>0.9469991826789133</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8237372792698641</v>
+        <v>0.7086043376292662</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8150466773177621</v>
+        <v>0.75731483779927</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9992211808585877</v>
+        <v>0.9130758021687033</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001277908413834942</v>
+        <v>0.1701478448779612</v>
       </c>
       <c r="G3" t="n">
-        <v>1.17866962513762</v>
+        <v>1.948564136026747</v>
       </c>
       <c r="H3" t="n">
-        <v>0.661567311024541</v>
+        <v>0.8680707534977976</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002458345662683887</v>
+        <v>0.2927583167935545</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0760827518781373</v>
+        <v>1.131991206184044</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03574784488378204</v>
+        <v>0.41248981184747</v>
       </c>
       <c r="L3" t="n">
-        <v>1.019648195541343</v>
+        <v>0.9278286742861798</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03631083770596689</v>
+        <v>0.4189861140455323</v>
       </c>
       <c r="N3" t="n">
-        <v>143.3250611785214</v>
+        <v>37.54217508825602</v>
       </c>
       <c r="O3" t="n">
-        <v>284.6602337217378</v>
+        <v>74.50675867648184</v>
       </c>
     </row>
     <row r="4">
@@ -610,144 +610,144 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9997062457483283</v>
+        <v>0.9469526296945178</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8234562678046462</v>
+        <v>0.7085446177877777</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8149572544806343</v>
+        <v>0.7575414433431633</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9993473336459329</v>
+        <v>0.9134218821404682</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001222759914891208</v>
+        <v>0.1702972933273982</v>
       </c>
       <c r="G4" t="n">
-        <v>1.18054875009947</v>
+        <v>1.948963482881766</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6618871713279136</v>
+        <v>0.8672601986066358</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002060143896554859</v>
+        <v>0.2915927289303629</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07972552424656264</v>
+        <v>1.132407352565755</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03496798414108552</v>
+        <v>0.4126709261959197</v>
       </c>
       <c r="L4" t="n">
-        <v>1.018800272106986</v>
+        <v>0.9277652829882795</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03551869493614764</v>
+        <v>0.4191700807639221</v>
       </c>
       <c r="N4" t="n">
-        <v>143.4132894997909</v>
+        <v>37.54041916999177</v>
       </c>
       <c r="O4" t="n">
-        <v>284.7484620430073</v>
+        <v>74.5050027582176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_5</t>
+          <t>model_1_37_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9997289311228807</v>
+        <v>0.9469043009965924</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8234506672529848</v>
+        <v>0.7084833167174789</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8143297563281946</v>
+        <v>0.7577690648421449</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9995499639639139</v>
+        <v>0.9137703527173484</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001128331437689541</v>
+        <v>0.1704524423272324</v>
       </c>
       <c r="G5" t="n">
-        <v>1.180586201014219</v>
+        <v>1.949373403421119</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6641316958347567</v>
+        <v>0.8664460097030315</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001420540506178794</v>
+        <v>0.2904190895746389</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0713042161575034</v>
+        <v>1.13283341084657</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03359064509189338</v>
+        <v>0.412858864900867</v>
       </c>
       <c r="L5" t="n">
-        <v>1.017348408135632</v>
+        <v>0.9276994736974875</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03411966417376464</v>
+        <v>0.4193609793156027</v>
       </c>
       <c r="N5" t="n">
-        <v>143.5740306826524</v>
+        <v>37.53859790359804</v>
       </c>
       <c r="O5" t="n">
-        <v>284.9092032258689</v>
+        <v>74.50318149182385</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_6</t>
+          <t>model_1_37_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9997211085056803</v>
+        <v>0.9468541198997664</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8234444765041361</v>
+        <v>0.7084203312447033</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8144425866238586</v>
+        <v>0.7579976234784485</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9994709877824524</v>
+        <v>0.9141213199824113</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001160893290625434</v>
+        <v>0.1706135380595271</v>
       </c>
       <c r="G6" t="n">
-        <v>1.180627598580275</v>
+        <v>1.949794587567591</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6637281084094431</v>
+        <v>0.8656284687135647</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001669829131519161</v>
+        <v>0.2892370414415185</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07134725256374495</v>
+        <v>1.133295271296058</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03407188416606036</v>
+        <v>0.4130539166495423</v>
       </c>
       <c r="L6" t="n">
-        <v>1.017849055636461</v>
+        <v>0.9276311419911714</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03460848228228717</v>
+        <v>0.4195591029343394</v>
       </c>
       <c r="N6" t="n">
-        <v>143.517130984193</v>
+        <v>37.53670858301447</v>
       </c>
       <c r="O6" t="n">
-        <v>284.8523035274094</v>
+        <v>74.50129217124029</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9997312895800047</v>
+        <v>0.946802096259448</v>
       </c>
       <c r="C7" t="n">
-        <v>0.823443201206336</v>
+        <v>0.7083557402752549</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8143557106360471</v>
+        <v>0.7582271859173619</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9995868925098488</v>
+        <v>0.9144746784589975</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001118514296947507</v>
+        <v>0.1707805488855914</v>
       </c>
       <c r="G7" t="n">
-        <v>1.180636126502537</v>
+        <v>1.950226507677706</v>
       </c>
       <c r="H7" t="n">
-        <v>0.664038858780486</v>
+        <v>0.8648073371803662</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001303975406657109</v>
+        <v>0.288046939773501</v>
       </c>
       <c r="J7" t="n">
-        <v>0.07228001165055788</v>
+        <v>1.133767250099223</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0334441967603874</v>
+        <v>0.413256033090373</v>
       </c>
       <c r="L7" t="n">
-        <v>1.017197466879701</v>
+        <v>0.9275603012894611</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03397090942743207</v>
+        <v>0.4197644025070708</v>
       </c>
       <c r="N7" t="n">
-        <v>143.59150798973</v>
+        <v>37.53475177303125</v>
       </c>
       <c r="O7" t="n">
-        <v>284.9266805329464</v>
+        <v>74.49933536125707</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9997348062039094</v>
+        <v>0.9467481347973246</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8233447896831303</v>
+        <v>0.7082894255201012</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8140949253810333</v>
+        <v>0.758457638550929</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999648921121339</v>
+        <v>0.9148304898576317</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001103876256061599</v>
+        <v>0.1709537806761721</v>
       </c>
       <c r="G8" t="n">
-        <v>1.181294204811357</v>
+        <v>1.95066995475077</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6649716725164719</v>
+        <v>0.8639830214725085</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001108181852144991</v>
+        <v>0.2868485767312299</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0737096115671808</v>
+        <v>1.134247032026356</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03322463327204078</v>
+        <v>0.4134655737497043</v>
       </c>
       <c r="L8" t="n">
-        <v>1.016972402949797</v>
+        <v>0.927486821851676</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03374788803362696</v>
+        <v>0.4199772432223228</v>
       </c>
       <c r="N8" t="n">
-        <v>143.6178548486203</v>
+        <v>37.53272409491484</v>
       </c>
       <c r="O8" t="n">
-        <v>284.9530273918367</v>
+        <v>74.49730768314066</v>
       </c>
     </row>
     <row r="9">
@@ -855,144 +855,144 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9997323391715092</v>
+        <v>0.946692242980838</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8233416801289299</v>
+        <v>0.7082213993271551</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8140513423983741</v>
+        <v>0.7586888895094385</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9996622771865872</v>
+        <v>0.9151888518119925</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001114145344289329</v>
+        <v>0.1711332094586357</v>
       </c>
       <c r="G9" t="n">
-        <v>1.181314998414613</v>
+        <v>1.951124846216233</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6651275663183576</v>
+        <v>0.8631558502026211</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001066023380007486</v>
+        <v>0.2856416234871499</v>
       </c>
       <c r="J9" t="n">
-        <v>0.07506724743914228</v>
+        <v>1.13473755511508</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03337881580118338</v>
+        <v>0.4136824983711974</v>
       </c>
       <c r="L9" t="n">
-        <v>1.017130293023413</v>
+        <v>0.9274107138462475</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03390449878347756</v>
+        <v>0.4201975841897593</v>
       </c>
       <c r="N9" t="n">
-        <v>143.5993353507017</v>
+        <v>37.530626046125</v>
       </c>
       <c r="O9" t="n">
-        <v>284.9345078939181</v>
+        <v>74.49520963435083</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_0</t>
+          <t>model_1_37_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9997374941095107</v>
+        <v>0.9466342731863141</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8230661556498262</v>
+        <v>0.7081515840701574</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8140086872934953</v>
+        <v>0.7589212295234188</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9997392201059524</v>
+        <v>0.9155496387565103</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001092687777237201</v>
+        <v>0.1713193091473725</v>
       </c>
       <c r="G10" t="n">
-        <v>1.183157431875053</v>
+        <v>1.951591701161246</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6652801411552242</v>
+        <v>0.8623247834444615</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0008231527544181907</v>
+        <v>0.2844265029426599</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06239259174688179</v>
+        <v>1.135239950007087</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03305582818864475</v>
+        <v>0.4139073678341236</v>
       </c>
       <c r="L10" t="n">
-        <v>1.016800376991313</v>
+        <v>0.9273317762537043</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03357642443891062</v>
+        <v>0.4204259951219397</v>
       </c>
       <c r="N10" t="n">
-        <v>143.6382295345719</v>
+        <v>37.52845231754139</v>
       </c>
       <c r="O10" t="n">
-        <v>284.9734020777883</v>
+        <v>74.4930359057672</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_37_1</t>
+          <t>model_1_37_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9997277703383194</v>
+        <v>0.9465742947827979</v>
       </c>
       <c r="C11" t="n">
-        <v>0.82302760467994</v>
+        <v>0.7080799737402915</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8130128437866384</v>
+        <v>0.7591543059962907</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9996593983319827</v>
+        <v>0.9159128282470572</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001133163234415306</v>
+        <v>0.1715118570478263</v>
       </c>
       <c r="G11" t="n">
-        <v>1.183415222388193</v>
+        <v>1.952070559766795</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6688422156369268</v>
+        <v>0.8614910824155488</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001075110495814101</v>
+        <v>0.2832032906889675</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06597547805919628</v>
+        <v>1.135750213046214</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03366249002102051</v>
+        <v>0.414139900332999</v>
       </c>
       <c r="L11" t="n">
-        <v>1.017422698347559</v>
+        <v>0.9272501035340226</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03419264058870695</v>
+        <v>0.4206621897752251</v>
       </c>
       <c r="N11" t="n">
-        <v>143.5654844691459</v>
+        <v>37.52620575492181</v>
       </c>
       <c r="O11" t="n">
-        <v>284.9006570123623</v>
+        <v>74.49078934314764</v>
       </c>
     </row>
   </sheetData>
